--- a/src/Library/file/MasterData.xlsx
+++ b/src/Library/file/MasterData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phubuingoc/Documents/1. Du An/2023/newbomrd/newbomrd/src/Library/file/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phubuingoc/Documents/1. Du An/2023/RD/newbomrd/src/Library/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5C8EB3-D160-4149-82EB-AD996513F481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DF478C-7861-A14B-82DF-E7032551F0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{A7024D83-6675-4836-B40C-E9E7FA45E951}"/>
   </bookViews>
@@ -99,14 +99,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-[$€]* #,##0.00_-;\-[$€]* #,##0.00_-;_-[$€]* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0;\-0;\-;@"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,18 +127,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -149,27 +136,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -215,68 +187,40 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -593,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FEB228-D787-4810-9854-876B8DC1906C}">
-  <dimension ref="A1:V15"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:U15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -619,14 +563,14 @@
     <col min="21" max="21" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:21" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -638,10 +582,10 @@
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -662,362 +606,27 @@
       <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="2"/>
-    </row>
-    <row r="3" spans="1:22" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="2"/>
-    </row>
-    <row r="4" spans="1:22" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="2"/>
-    </row>
-    <row r="5" spans="1:22" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="2"/>
-    </row>
-    <row r="6" spans="1:22" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="2"/>
-    </row>
-    <row r="7" spans="1:22" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="2"/>
-    </row>
-    <row r="8" spans="1:22" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="2"/>
-    </row>
-    <row r="9" spans="1:22" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="2"/>
-    </row>
-    <row r="10" spans="1:22" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="2"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="2"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="2"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="2"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="2"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
